--- a/rmonize/data_dictionary/DD_KORA_S1_P2_Preliminary.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2_Preliminary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601C98BC-1376-47F9-8909-02E960DE5C26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BE54B-45FB-4A9C-B67F-A2068A9DBEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="213">
   <si>
     <t>index</t>
   </si>
@@ -605,6 +605,66 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>AV341</t>
+  </si>
+  <si>
+    <t>oranges, mandarins</t>
+  </si>
+  <si>
+    <t>AV343</t>
+  </si>
+  <si>
+    <t>grapefruits</t>
+  </si>
+  <si>
+    <t>AV344</t>
+  </si>
+  <si>
+    <t>other citrus fruits</t>
+  </si>
+  <si>
+    <t>AV345</t>
+  </si>
+  <si>
+    <t>bananas</t>
+  </si>
+  <si>
+    <t>AV346</t>
+  </si>
+  <si>
+    <t>other tropical fruits</t>
+  </si>
+  <si>
+    <t>AV351</t>
+  </si>
+  <si>
+    <t>nuts</t>
+  </si>
+  <si>
+    <t>AV357</t>
+  </si>
+  <si>
+    <t>dried fruit</t>
+  </si>
+  <si>
+    <t>AV360</t>
+  </si>
+  <si>
+    <t>canned fruit</t>
+  </si>
+  <si>
+    <t>AV370</t>
+  </si>
+  <si>
+    <t>frozen fruit</t>
+  </si>
+  <si>
+    <t>AV390</t>
+  </si>
+  <si>
+    <t>other processed fruit</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,44 +2387,144 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="5"/>
-      <c r="D87" s="4"/>
+      <c r="A87">
+        <v>99</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="A89">
+        <v>101</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="A90">
+        <v>102</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="5"/>
-      <c r="D91" s="4"/>
+      <c r="A91">
+        <v>103</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="5"/>
-      <c r="D92" s="4"/>
+      <c r="A92">
+        <v>104</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="D93" s="4"/>
+      <c r="A93">
+        <v>105</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="5"/>
-      <c r="D94" s="4"/>
+      <c r="A94">
+        <v>106</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="D95" s="5"/>
+      <c r="A95">
+        <v>107</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="A96">
+        <v>108</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
@@ -4490,6 +4650,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4730,28 +4911,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B441777-EF9E-47A6-A0E0-388F26FE2EA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4768,23 +4947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rmonize/data_dictionary/DD_KORA_S1_P2_Preliminary.xlsx
+++ b/rmonize/data_dictionary/DD_KORA_S1_P2_Preliminary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\rmonize\data_dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\use-cases-harmonisation\rmonize\data_dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9BE54B-45FB-4A9C-B67F-A2068A9DBEEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145B7BE-0EAF-4D4E-8DF6-9708E3B14E84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{F66E816F-B844-4025-9D57-703EE86FBE35}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>acsex</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -665,6 +662,9 @@
   </si>
   <si>
     <t>other processed fruit</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1167,11 +1167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBB1F-BD60-4F64-AB96-FAE7D77C8064}">
   <dimension ref="A1:I304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="13" customWidth="1"/>
@@ -1216,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1227,13 +1227,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1241,13 +1241,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1255,13 +1255,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="21"/>
     </row>
@@ -1270,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="21"/>
     </row>
@@ -1285,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1299,13 +1299,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1313,13 +1313,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1327,13 +1327,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1341,13 +1341,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1355,13 +1355,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1369,13 +1369,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1383,13 +1383,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1397,13 +1397,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,13 +1411,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1425,13 @@
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +1439,13 @@
         <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +1453,13 @@
         <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D20" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1467,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +1481,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1495,13 @@
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1509,13 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +1523,13 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1537,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,13 +1551,13 @@
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,13 +1565,13 @@
         <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,13 +1579,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,13 +1593,13 @@
         <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,13 +1607,13 @@
         <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,13 +1621,13 @@
         <v>42</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,13 +1635,13 @@
         <v>43</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,13 +1649,13 @@
         <v>44</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,13 +1663,13 @@
         <v>45</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,13 +1677,13 @@
         <v>46</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="D36" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,13 +1691,13 @@
         <v>47</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="D37" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,13 +1705,13 @@
         <v>48</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>80</v>
-      </c>
       <c r="D38" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +1719,13 @@
         <v>49</v>
       </c>
       <c r="B39" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="D39" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,13 +1733,13 @@
         <v>50</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>84</v>
-      </c>
       <c r="D40" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,13 +1747,13 @@
         <v>51</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="D41" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,13 +1761,13 @@
         <v>52</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>88</v>
-      </c>
       <c r="D42" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,13 +1775,13 @@
         <v>53</v>
       </c>
       <c r="B43" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,13 +1789,13 @@
         <v>54</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="D44" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,13 +1803,13 @@
         <v>55</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,13 +1817,13 @@
         <v>56</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +1831,13 @@
         <v>57</v>
       </c>
       <c r="B47" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>98</v>
-      </c>
       <c r="D47" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,13 +1845,13 @@
         <v>58</v>
       </c>
       <c r="B48" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="D48" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,13 +1859,13 @@
         <v>59</v>
       </c>
       <c r="B49" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,13 +1873,13 @@
         <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,13 +1887,13 @@
         <v>61</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +1901,13 @@
         <v>62</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +1915,13 @@
         <v>62</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +1929,13 @@
         <v>64</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +1943,13 @@
         <v>65</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +1957,13 @@
         <v>66</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="D56" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,13 +1971,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D57" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,13 +1985,13 @@
         <v>68</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="D58" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,13 +1999,13 @@
         <v>69</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>122</v>
-      </c>
       <c r="D59" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,13 +2013,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>124</v>
-      </c>
       <c r="D60" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,13 +2027,13 @@
         <v>71</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>126</v>
-      </c>
       <c r="D61" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +2041,13 @@
         <v>72</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="25" t="s">
-        <v>128</v>
-      </c>
       <c r="D62" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +2055,13 @@
         <v>73</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="22" t="s">
-        <v>130</v>
-      </c>
       <c r="D63" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +2069,13 @@
         <v>74</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="D64" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +2083,13 @@
         <v>75</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>134</v>
-      </c>
       <c r="D65" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +2097,13 @@
         <v>76</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>136</v>
-      </c>
       <c r="D66" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +2111,13 @@
         <v>77</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>138</v>
-      </c>
       <c r="D67" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,13 +2125,13 @@
         <v>78</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D68" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,13 +2139,13 @@
         <v>79</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>142</v>
-      </c>
       <c r="D69" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,13 +2153,13 @@
         <v>80</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="D70" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,13 +2167,13 @@
         <v>81</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>146</v>
-      </c>
       <c r="D71" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,13 +2181,13 @@
         <v>82</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>148</v>
-      </c>
       <c r="D72" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,13 +2195,13 @@
         <v>83</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="D73" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,13 +2209,13 @@
         <v>84</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>152</v>
-      </c>
       <c r="D74" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2223,13 +2223,13 @@
         <v>85</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="D75" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,13 +2237,13 @@
         <v>86</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>156</v>
-      </c>
       <c r="D76" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,13 +2251,13 @@
         <v>87</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D77" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,13 +2265,13 @@
         <v>88</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D78" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,13 +2279,13 @@
         <v>91</v>
       </c>
       <c r="B79" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="22" t="s">
-        <v>162</v>
-      </c>
       <c r="D79" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,13 +2293,13 @@
         <v>92</v>
       </c>
       <c r="B80" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>164</v>
-      </c>
       <c r="D80" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +2307,13 @@
         <v>93</v>
       </c>
       <c r="B81" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="22" t="s">
-        <v>166</v>
-      </c>
       <c r="D81" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2321,13 +2321,13 @@
         <v>94</v>
       </c>
       <c r="B82" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="27" t="s">
-        <v>168</v>
-      </c>
       <c r="D82" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,13 +2335,13 @@
         <v>95</v>
       </c>
       <c r="B83" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="22" t="s">
-        <v>170</v>
-      </c>
       <c r="D83" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,13 +2349,13 @@
         <v>96</v>
       </c>
       <c r="B84" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="D84" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,13 +2363,13 @@
         <v>97</v>
       </c>
       <c r="B85" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="22" t="s">
-        <v>174</v>
-      </c>
       <c r="D85" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,13 +2377,13 @@
         <v>98</v>
       </c>
       <c r="B86" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="22" t="s">
-        <v>176</v>
-      </c>
       <c r="D86" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,13 +2391,13 @@
         <v>99</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="D87" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,13 +2405,13 @@
         <v>100</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="D88" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,13 +2419,13 @@
         <v>101</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="D89" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +2433,13 @@
         <v>102</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="D90" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,13 +2447,13 @@
         <v>103</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="D91" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +2461,13 @@
         <v>104</v>
       </c>
       <c r="B92" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C92" s="22" t="s">
-        <v>204</v>
-      </c>
       <c r="D92" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +2475,13 @@
         <v>105</v>
       </c>
       <c r="B93" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>206</v>
-      </c>
       <c r="D93" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2489,13 @@
         <v>106</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>208</v>
-      </c>
       <c r="D94" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2503,13 @@
         <v>107</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>210</v>
-      </c>
       <c r="D95" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2517,13 @@
         <v>108</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C96" s="22" t="s">
-        <v>212</v>
-      </c>
       <c r="D96" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
@@ -3313,7 +3313,7 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -3322,7 +3322,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,359 +3353,359 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="12">
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="12">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="12">
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="12">
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="12">
         <v>3</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="12">
         <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12">
         <v>0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="12">
         <v>0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="12">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="12">
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="12">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="12">
         <v>0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="12">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="12">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="12">
         <v>0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="12">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="12">
         <v>0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="12">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="12">
         <v>0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="12">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="12">
         <v>0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="12">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="12">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4662,15 +4662,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
     <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
@@ -4911,6 +4902,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C5FC19-F4BC-4ACD-86FC-72730E460845}">
   <ds:schemaRefs>
@@ -4923,14 +4923,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B441777-EF9E-47A6-A0E0-388F26FE2EA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4947,4 +4939,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDB1557E-B519-46C1-8C0E-CA7CA5BBAB79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>